--- a/data_file.xlsx
+++ b/data_file.xlsx
@@ -97,7 +97,7 @@
     <t>The cheetah runs fast.</t>
   </si>
   <si>
-    <t>The snail moves slowly.</t>
+    <t>The snail moves slow.</t>
   </si>
   <si>
     <t xml:space="preserve">high speed </t>

--- a/data_file.xlsx
+++ b/data_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VogliA\SensePolar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0C0D7-E08B-47C9-9785-7CF50326D983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA991D34-3A15-4DD5-9C50-B2E1F78B7033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39241555-8628-4AD4-BBEF-F0B02105814E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>antonym_1</t>
   </si>
@@ -62,34 +62,37 @@
     <t>two</t>
   </si>
   <si>
-    <t>def1</t>
-  </si>
-  <si>
-    <t>def2</t>
-  </si>
-  <si>
-    <t>definition test1</t>
-  </si>
-  <si>
-    <t>definition test2</t>
-  </si>
-  <si>
-    <t>definition one</t>
-  </si>
-  <si>
-    <t>definition two</t>
-  </si>
-  <si>
-    <t>test is first example.Second sentence example of test.Example without the word.</t>
-  </si>
-  <si>
-    <t>test2 is first example.Second sentence example of test2.Example without the word.</t>
-  </si>
-  <si>
     <t>example for one.one example sentence.</t>
   </si>
   <si>
     <t>example for two.two example sentence.</t>
+  </si>
+  <si>
+    <t>test2 is first example. Second sentence example of test2.Example without the word.</t>
+  </si>
+  <si>
+    <t>test is first example. Second sentence example of test. Example without the word.</t>
+  </si>
+  <si>
+    <t>word1</t>
+  </si>
+  <si>
+    <t>word2</t>
+  </si>
+  <si>
+    <t>Word2 is an word for testing.</t>
+  </si>
+  <si>
+    <t>wrd1 example. eXample of w.</t>
+  </si>
+  <si>
+    <t>value_test</t>
+  </si>
+  <si>
+    <t>valueq</t>
+  </si>
+  <si>
+    <t>casdvsdfvasdfvsd madfv asdf fvasdfvas.</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CD51CE-9FC2-4643-8921-DD372DB3ED7F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -451,10 +454,10 @@
     <col min="1" max="1" width="32.21875" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,14 +470,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,19 +479,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -502,16 +493,38 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
